--- a/data.xlsx
+++ b/data.xlsx
@@ -1,137 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Code\S3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2C93A2-33F4-4797-9FC1-194A8A7A5233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="3570" windowWidth="14010" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3690" yWindow="3735" windowWidth="14010" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="edges" sheetId="1" r:id="rId1"/>
-    <sheet name="nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="voltages" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
-    <sheet name="fbsweep" sheetId="5" r:id="rId5"/>
+    <sheet name="edges" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="nodes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="voltages" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fbsweep" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
-  <si>
-    <t>Start Node</t>
-  </si>
-  <si>
-    <t>Line Impedance</t>
-  </si>
-  <si>
-    <t>End Node</t>
-  </si>
-  <si>
-    <t>Type (T/I)</t>
-  </si>
-  <si>
-    <t>0.7735+1.9373j,0.3061+0.6270j</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>10,10,10,1,0,0</t>
-  </si>
-  <si>
-    <t>5,5,5,1,0,0</t>
-  </si>
-  <si>
-    <t>Phase Voltage (V)</t>
-  </si>
-  <si>
-    <t>Power (kVA)</t>
-  </si>
-  <si>
-    <t>400+0j</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Iterations</t>
-  </si>
-  <si>
-    <t>Round Factor</t>
-  </si>
-  <si>
-    <t>Nodes</t>
-  </si>
-  <si>
-    <t>Sweep 1</t>
-  </si>
-  <si>
-    <t>Sweep 2</t>
-  </si>
-  <si>
-    <t>Sweep 3</t>
-  </si>
-  <si>
-    <t>400.0 ∠ 0.0, 400.0 ∠ -120.0, 400.0 ∠ 120.0</t>
-  </si>
-  <si>
-    <t>396.251 ∠ -1.133, 396.251 ∠ -121.133, 396.251 ∠ 118.867</t>
-  </si>
-  <si>
-    <t>396.038 ∠ -1.133, 396.038 ∠ -121.133, 396.038 ∠ 118.867</t>
-  </si>
-  <si>
-    <t>396.035 ∠ -1.134, 396.035 ∠ -121.134, 396.035 ∠ 118.866</t>
-  </si>
-  <si>
-    <t>395.037 ∠ -1.516, 395.037 ∠ -121.516, 395.037 ∠ 118.484</t>
-  </si>
-  <si>
-    <t>394.737 ∠ -1.516, 394.737 ∠ -121.516, 394.737 ∠ 118.484</t>
-  </si>
-  <si>
-    <t>394.734 ∠ -1.517, 394.734 ∠ -121.517, 394.734 ∠ 118.483</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,24 +50,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -467,62 +426,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="2" customWidth="1"/>
+    <col width="17.85546875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="29.42578125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="18.140625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="12.5703125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Start Node</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Line Impedance</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>End Node</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Type (T/I)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TF Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000,13800,208,6,5,YD</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -531,59 +502,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col width="11.5703125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="55.28515625" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Connection</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>400+300j,400+300j,400+300j,1,0,0</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -592,49 +567,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
+    <col width="24.28515625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.140625" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Phase Voltage (V)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Power (kVA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>13800+0j</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -643,39 +625,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col width="12.5703125" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iterations</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Round Factor</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -685,70 +677,94 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="50" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sweep 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sweep 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Sweep 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Sweep 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>203.043 ∠ 31.057, 203.043 ∠ -88.943, 203.043 ∠ 151.057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>201.642 ∠ 30.184, 201.642 ∠ -89.816, 201.642 ∠ 150.184</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>201.608 ∠ 30.213, 201.608 ∠ -89.787, 201.608 ∠ 150.213</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>201.607 ∠ 30.212, 201.607 ∠ -89.788, 201.607 ∠ 150.212</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3690" yWindow="3735" windowWidth="14010" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1545" yWindow="3840" windowWidth="14010" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" state="visible" r:id="rId1"/>
@@ -433,8 +433,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1000,13800,208,6,5,YD</t>
+          <t>1000,13800,208,6,5,DY</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>400+300j,400+300j,400+300j,1,0,0</t>
+          <t>200+150j,120+90j,80+60j,1,0,0</t>
         </is>
       </c>
     </row>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="2">
@@ -682,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,6 +716,11 @@
           <t>Sweep 4</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sweep 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -741,6 +746,11 @@
           <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13800.0 ∠ 0.0, 13800.0 ∠ -120.0, 13800.0 ∠ 120.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -748,22 +758,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>203.043 ∠ 31.057, 203.043 ∠ -88.943, 203.043 ∠ 151.057</t>
+          <t>205.817 ∠ 30.394, 206.75 ∠ -89.552, 206.454 ∠ 150.197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>201.642 ∠ 30.184, 201.642 ∠ -89.816, 201.642 ∠ 150.184</t>
+          <t>205.373 ∠ 30.033, 206.084 ∠ -89.786, 206.292 ∠ 149.952</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>201.608 ∠ 30.213, 201.608 ∠ -89.787, 201.608 ∠ 150.213</t>
+          <t>205.368 ∠ 30.037, 206.084 ∠ -89.783, 206.286 ∠ 149.955</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>201.607 ∠ 30.212, 201.607 ∠ -89.788, 201.607 ∠ 150.212</t>
+          <t>205.368 ∠ 30.037, 206.084 ∠ -89.783, 206.286 ∠ 149.954</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>205.368 ∠ 30.037, 206.084 ∠ -89.783, 206.286 ∠ 149.954</t>
         </is>
       </c>
     </row>
